--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="2259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="2341">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9035,6 +9035,333 @@
   </si>
   <si>
     <t>冯巩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武藤兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍井空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕格尼尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴可夫斯基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝多芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫扎特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴赫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班得瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒伯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冼星海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步惊云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕福剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘纯燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李咏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿加西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费德勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉波娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德约科维奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳达尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿扎伦卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘国梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔令辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓亚萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范志毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭晶晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹市明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占旭刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易建联</t>
+  </si>
+  <si>
+    <t>白岩松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩乔生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔永元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴洛特利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格里芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波什</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜兰特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍华德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷吉·米勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰拉德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰帕德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏亚雷斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒梅切尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布冯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博格坎普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王义夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴特尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王治郅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马布里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌索普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波雅·汉库克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑崎一护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多啦A梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿童木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朽木露琪亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11315,10 +11642,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N419"/>
+  <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21576,6 +21903,416 @@
         <v>2258</v>
       </c>
     </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>2340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="2341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="2439">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9362,6 +9362,398 @@
   </si>
   <si>
     <t>朽木露琪亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕不韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙恬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍去病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昭君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨玉环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李世民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包拯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜阿骨打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈友谅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱元璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏忠贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚继光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林则徐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳌拜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈禧太后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尉迟恭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大禹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩非子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙膑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商鞅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华佗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王羲之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛仁贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵匡胤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文天祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李自成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雍正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和珅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪晓岚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁世凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安禄山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李清照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋瑾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李元芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾国藩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鸿章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高力士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妲己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郦道元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙思邈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾炎武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康有为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉颇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔺相如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈圆圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李师师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六小龄童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗贯中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴承恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐悲鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏羲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女娲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后羿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高鹗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭嗣同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁启超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋介石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡适</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕昇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁隆平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞伯牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟子期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆轲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李隆基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11642,10 +12034,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22313,6 +22705,506 @@
         <v>2340</v>
       </c>
     </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="1" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="1" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="1" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>2438</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="2901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="2992">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11602,6 +11602,370 @@
   </si>
   <si>
     <t>法海你不懂爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超炫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步惊云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月的雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李逍遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日有明月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戎装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新上海滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一代宗师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝芝林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黝黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彝族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再回首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧郁王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那些年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国文化大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有话直说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国第一飞人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨小孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视歌三栖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nori-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星之金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老男孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念逝去的青春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙剑奇侠传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦家人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯弯的月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语法语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚运会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳女主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很爱很爱你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红女郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军人世家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨星的风采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人琴合一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的歌声里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡须哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳音乐学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男高音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星照我去战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打靶归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曲金奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11664,7 +12028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11679,6 +12043,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13890,8 +14257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="A602" sqref="A602"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="H361" sqref="H361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24846,8 +25213,23 @@
       <c r="B342" s="4" t="s">
         <v>2474</v>
       </c>
+      <c r="C342" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>2905</v>
+      </c>
       <c r="G342" s="1">
         <v>1</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>2906</v>
       </c>
       <c r="I342" s="1">
         <v>1</v>
@@ -24863,8 +25245,23 @@
       <c r="B343" s="4" t="s">
         <v>2475</v>
       </c>
+      <c r="C343" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>2909</v>
+      </c>
       <c r="G343" s="1">
         <v>1</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>2910</v>
       </c>
       <c r="I343" s="1">
         <v>1</v>
@@ -24880,8 +25277,23 @@
       <c r="B344" s="4" t="s">
         <v>2476</v>
       </c>
+      <c r="C344" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>2915</v>
+      </c>
       <c r="G344" s="1">
         <v>1</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>2911</v>
       </c>
       <c r="I344" s="1">
         <v>1</v>
@@ -24897,8 +25309,23 @@
       <c r="B345" s="4" t="s">
         <v>2476</v>
       </c>
+      <c r="C345" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>2917</v>
+      </c>
       <c r="G345" s="1">
         <v>1</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>2918</v>
       </c>
       <c r="I345" s="1">
         <v>1</v>
@@ -24914,8 +25341,23 @@
       <c r="B346" s="4" t="s">
         <v>2477</v>
       </c>
+      <c r="C346" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>2920</v>
+      </c>
       <c r="G346" s="1">
         <v>1</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>2923</v>
       </c>
       <c r="I346" s="1">
         <v>1</v>
@@ -24931,8 +25373,23 @@
       <c r="B347" s="4" t="s">
         <v>2478</v>
       </c>
+      <c r="C347" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>2927</v>
+      </c>
       <c r="G347" s="1">
         <v>1</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>2928</v>
       </c>
       <c r="I347" s="1">
         <v>1</v>
@@ -24948,8 +25405,23 @@
       <c r="B348" s="4" t="s">
         <v>2479</v>
       </c>
+      <c r="C348" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2932</v>
+      </c>
       <c r="G348" s="1">
         <v>1</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>2931</v>
       </c>
       <c r="I348" s="1">
         <v>1</v>
@@ -24965,8 +25437,23 @@
       <c r="B349" s="4" t="s">
         <v>2480</v>
       </c>
+      <c r="C349" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>2937</v>
+      </c>
       <c r="G349" s="1">
         <v>1</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>2938</v>
       </c>
       <c r="I349" s="1">
         <v>1</v>
@@ -24982,8 +25469,23 @@
       <c r="B350" s="4" t="s">
         <v>2481</v>
       </c>
+      <c r="C350" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>2939</v>
+      </c>
       <c r="G350" s="1">
         <v>1</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>2942</v>
       </c>
       <c r="I350" s="1">
         <v>1</v>
@@ -24999,8 +25501,23 @@
       <c r="B351" s="4" t="s">
         <v>2482</v>
       </c>
+      <c r="C351" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>2955</v>
+      </c>
       <c r="G351" s="1">
         <v>1</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>2956</v>
       </c>
       <c r="I351" s="1">
         <v>1</v>
@@ -25016,8 +25533,23 @@
       <c r="B352" s="4" t="s">
         <v>2483</v>
       </c>
+      <c r="C352" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E352" s="1">
+        <v>1991</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>2944</v>
+      </c>
       <c r="G352" s="1">
         <v>1</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>2946</v>
       </c>
       <c r="I352" s="1">
         <v>1</v>
@@ -25033,8 +25565,23 @@
       <c r="B353" s="4" t="s">
         <v>2484</v>
       </c>
+      <c r="C353" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>2957</v>
+      </c>
       <c r="G353" s="1">
         <v>1</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>2960</v>
       </c>
       <c r="I353" s="1">
         <v>1</v>
@@ -25050,8 +25597,23 @@
       <c r="B354" s="4" t="s">
         <v>2485</v>
       </c>
+      <c r="C354" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>2948</v>
+      </c>
       <c r="G354" s="1">
         <v>1</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>2951</v>
       </c>
       <c r="I354" s="1">
         <v>1</v>
@@ -25067,8 +25629,23 @@
       <c r="B355" s="4" t="s">
         <v>2486</v>
       </c>
+      <c r="C355" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>2962</v>
+      </c>
       <c r="G355" s="1">
         <v>1</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>2963</v>
       </c>
       <c r="I355" s="1">
         <v>1</v>
@@ -25084,8 +25661,23 @@
       <c r="B356" s="4" t="s">
         <v>2487</v>
       </c>
+      <c r="C356" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>2966</v>
+      </c>
       <c r="G356" s="1">
         <v>1</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>2968</v>
       </c>
       <c r="I356" s="1">
         <v>1</v>
@@ -25101,8 +25693,23 @@
       <c r="B357" s="4" t="s">
         <v>2488</v>
       </c>
+      <c r="C357" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>2971</v>
+      </c>
       <c r="G357" s="1">
         <v>1</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>2972</v>
       </c>
       <c r="I357" s="1">
         <v>1</v>
@@ -25118,8 +25725,23 @@
       <c r="B358" s="4" t="s">
         <v>2489</v>
       </c>
+      <c r="C358" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>2977</v>
+      </c>
       <c r="G358" s="1">
         <v>1</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>2978</v>
       </c>
       <c r="I358" s="1">
         <v>1</v>
@@ -25135,8 +25757,23 @@
       <c r="B359" s="4" t="s">
         <v>2490</v>
       </c>
+      <c r="C359" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>2981</v>
+      </c>
       <c r="G359" s="1">
         <v>1</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>2934</v>
       </c>
       <c r="I359" s="1">
         <v>1</v>
@@ -25152,8 +25789,23 @@
       <c r="B360" s="4" t="s">
         <v>2491</v>
       </c>
+      <c r="C360" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>2985</v>
+      </c>
       <c r="G360" s="1">
         <v>1</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>2986</v>
       </c>
       <c r="I360" s="1">
         <v>1</v>
@@ -25169,8 +25821,23 @@
       <c r="B361" s="4" t="s">
         <v>2492</v>
       </c>
+      <c r="C361" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>2988</v>
+      </c>
       <c r="G361" s="1">
         <v>1</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>2991</v>
       </c>
       <c r="I361" s="1">
         <v>1</v>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="11100" windowHeight="5805" tabRatio="627" activeTab="8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="2992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="2991">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11066,10 +11066,6 @@
   </si>
   <si>
     <t>百变歌姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇多田光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11972,19 +11968,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12050,7 +12046,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -12063,7 +12059,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12137,6 +12133,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12171,6 +12168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12346,7 +12344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12355,7 +12353,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12616,7 +12614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12974,7 +12972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13173,7 +13171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13302,7 +13300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13311,7 +13309,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13376,7 +13374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13424,19 +13422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14121,25 +14119,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -14254,25 +14252,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N602"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="H361" sqref="H361"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -24289,19 +24287,19 @@
         <v>2766</v>
       </c>
       <c r="D313" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="E313" s="1" t="s">
+      <c r="F313" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="G313" s="1">
+        <v>1</v>
+      </c>
+      <c r="H313" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="G313" s="1">
-        <v>1</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="I313" s="1">
         <v>1</v>
@@ -24318,22 +24316,22 @@
         <v>2448</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G314" s="1">
+        <v>1</v>
+      </c>
+      <c r="H314" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="G314" s="1">
-        <v>1</v>
-      </c>
-      <c r="H314" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="I314" s="1">
         <v>1</v>
@@ -24350,22 +24348,22 @@
         <v>2449</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F315" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="G315" s="1">
+        <v>1</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>2778</v>
-      </c>
-      <c r="G315" s="1">
-        <v>1</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="I315" s="1">
         <v>1</v>
@@ -24382,22 +24380,22 @@
         <v>2450</v>
       </c>
       <c r="C316" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="E316" s="1" t="s">
+      <c r="F316" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="F316" s="1" t="s">
+      <c r="G316" s="1">
+        <v>1</v>
+      </c>
+      <c r="H316" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="G316" s="1">
-        <v>1</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="I316" s="1">
         <v>1</v>
@@ -24414,22 +24412,22 @@
         <v>2451</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="E317" s="1">
         <v>10.1</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="G317" s="1">
         <v>1</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="I317" s="1">
         <v>1</v>
@@ -24446,22 +24444,22 @@
         <v>2452</v>
       </c>
       <c r="C318" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="E318" s="1" t="s">
+      <c r="F318" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="F318" s="1" t="s">
+      <c r="G318" s="1">
+        <v>1</v>
+      </c>
+      <c r="H318" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="G318" s="1">
-        <v>1</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="I318" s="1">
         <v>1</v>
@@ -24478,22 +24476,22 @@
         <v>2441</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="E319" s="1" t="s">
+      <c r="F319" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="F319" s="1" t="s">
+      <c r="G319" s="1">
+        <v>1</v>
+      </c>
+      <c r="H319" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="G319" s="1">
-        <v>1</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="I319" s="1">
         <v>1</v>
@@ -24510,22 +24508,22 @@
         <v>2453</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>2736</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="G320" s="1">
         <v>1</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="I320" s="1">
         <v>1</v>
@@ -24542,22 +24540,22 @@
         <v>2454</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="E321" s="1" t="s">
+      <c r="F321" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="F321" s="1" t="s">
+      <c r="G321" s="1">
+        <v>1</v>
+      </c>
+      <c r="H321" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="G321" s="1">
-        <v>1</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="I321" s="1">
         <v>1</v>
@@ -24574,22 +24572,22 @@
         <v>2455</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="E322" s="1" t="s">
+      <c r="F322" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="F322" s="1" t="s">
+      <c r="G322" s="1">
+        <v>1</v>
+      </c>
+      <c r="H322" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="G322" s="1">
-        <v>1</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="I322" s="1">
         <v>1</v>
@@ -24606,22 +24604,22 @@
         <v>2456</v>
       </c>
       <c r="C323" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="E323" s="1" t="s">
+      <c r="G323" s="1">
+        <v>1</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="G323" s="1">
-        <v>1</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="I323" s="1">
         <v>1</v>
@@ -24638,22 +24636,22 @@
         <v>2457</v>
       </c>
       <c r="C324" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="E324" s="1" t="s">
+      <c r="F324" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="F324" s="1" t="s">
+      <c r="G324" s="1">
+        <v>1</v>
+      </c>
+      <c r="H324" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="G324" s="1">
-        <v>1</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="I324" s="1">
         <v>1</v>
@@ -24670,16 +24668,16 @@
         <v>2458</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="E325" s="1" t="s">
+      <c r="F325" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="G325" s="1">
         <v>1</v>
@@ -24702,22 +24700,22 @@
         <v>2459</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>2736</v>
       </c>
       <c r="E326" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F326" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="F326" s="1" t="s">
+      <c r="G326" s="1">
+        <v>1</v>
+      </c>
+      <c r="H326" s="1" t="s">
         <v>2831</v>
-      </c>
-      <c r="G326" s="1">
-        <v>1</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>2832</v>
       </c>
       <c r="I326" s="1">
         <v>1</v>
@@ -24734,22 +24732,22 @@
         <v>2460</v>
       </c>
       <c r="C327" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>2833</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="E327" s="1" t="s">
+      <c r="F327" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="F327" s="1" t="s">
+      <c r="G327" s="1">
+        <v>1</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="G327" s="1">
-        <v>1</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="I327" s="1">
         <v>1</v>
@@ -24766,22 +24764,22 @@
         <v>2461</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>2839</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="F328" s="1" t="s">
+      <c r="G328" s="1">
+        <v>1</v>
+      </c>
+      <c r="H328" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="G328" s="1">
-        <v>1</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="I328" s="1">
         <v>1</v>
@@ -24798,22 +24796,22 @@
         <v>2462</v>
       </c>
       <c r="C329" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="E329" s="1" t="s">
+      <c r="F329" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="F329" s="1" t="s">
+      <c r="G329" s="1">
+        <v>1</v>
+      </c>
+      <c r="H329" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="G329" s="1">
-        <v>1</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>2846</v>
       </c>
       <c r="I329" s="1">
         <v>1</v>
@@ -24833,19 +24831,19 @@
         <v>2756</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="F330" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="F330" s="1" t="s">
+      <c r="G330" s="1">
+        <v>1</v>
+      </c>
+      <c r="H330" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="G330" s="1">
-        <v>1</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="I330" s="1">
         <v>1</v>
@@ -24862,22 +24860,22 @@
         <v>2463</v>
       </c>
       <c r="C331" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F331" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>2855</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>2854</v>
-      </c>
       <c r="G331" s="1">
         <v>1</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="I331" s="1">
         <v>1</v>
@@ -24894,22 +24892,22 @@
         <v>2465</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F332" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>2858</v>
-      </c>
-      <c r="E332" s="1" t="s">
+      <c r="G332" s="1">
+        <v>1</v>
+      </c>
+      <c r="H332" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G332" s="1">
-        <v>1</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>2860</v>
       </c>
       <c r="I332" s="1">
         <v>1</v>
@@ -24926,22 +24924,22 @@
         <v>2466</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="E333" s="1" t="s">
+      <c r="F333" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="F333" s="1" t="s">
+      <c r="G333" s="1">
+        <v>1</v>
+      </c>
+      <c r="H333" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="G333" s="1">
-        <v>1</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>2864</v>
       </c>
       <c r="I333" s="1">
         <v>1</v>
@@ -24952,28 +24950,28 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B334" s="4" t="s">
         <v>2865</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="C334" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="F334" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G334" s="1">
+        <v>1</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>2871</v>
-      </c>
-      <c r="G334" s="1">
-        <v>1</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="I334" s="1">
         <v>1</v>
@@ -24990,22 +24988,22 @@
         <v>2467</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="E335" s="1" t="s">
+      <c r="F335" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="F335" s="1" t="s">
+      <c r="G335" s="1">
+        <v>1</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="G335" s="1">
-        <v>1</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="I335" s="1">
         <v>1</v>
@@ -25022,22 +25020,22 @@
         <v>2468</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="E336" s="1" t="s">
+      <c r="F336" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="F336" s="1" t="s">
+      <c r="G336" s="1">
+        <v>1</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="G336" s="1">
-        <v>1</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="I336" s="1">
         <v>1</v>
@@ -25054,22 +25052,22 @@
         <v>2469</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D337" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="E337" s="1" t="s">
+      <c r="F337" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G337" s="1">
+        <v>1</v>
+      </c>
+      <c r="H337" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="G337" s="1">
-        <v>1</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>2884</v>
       </c>
       <c r="I337" s="1">
         <v>1</v>
@@ -25086,13 +25084,13 @@
         <v>2470</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>2776</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>2727</v>
@@ -25118,22 +25116,22 @@
         <v>2471</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F339" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="E339" s="1" t="s">
+      <c r="G339" s="1">
+        <v>1</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>2890</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="G339" s="1">
-        <v>1</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="I339" s="1">
         <v>1</v>
@@ -25150,22 +25148,22 @@
         <v>2472</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="E340" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F340" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="F340" s="1" t="s">
+      <c r="G340" s="1">
+        <v>1</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>2893</v>
-      </c>
-      <c r="G340" s="1">
-        <v>1</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>2894</v>
       </c>
       <c r="I340" s="1">
         <v>1</v>
@@ -25182,22 +25180,22 @@
         <v>2473</v>
       </c>
       <c r="C341" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="E341" s="1" t="s">
+      <c r="F341" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="F341" s="1" t="s">
+      <c r="G341" s="1">
+        <v>1</v>
+      </c>
+      <c r="H341" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="G341" s="1">
-        <v>1</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>2900</v>
       </c>
       <c r="I341" s="1">
         <v>1</v>
@@ -25214,22 +25212,22 @@
         <v>2474</v>
       </c>
       <c r="C342" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>2901</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>2902</v>
-      </c>
       <c r="E342" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F342" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="F342" s="1" t="s">
+      <c r="G342" s="1">
+        <v>1</v>
+      </c>
+      <c r="H342" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="G342" s="1">
-        <v>1</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="I342" s="1">
         <v>1</v>
@@ -25249,19 +25247,19 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="D343" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E343" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="E343" s="1" t="s">
+      <c r="F343" s="1" t="s">
         <v>2908</v>
       </c>
-      <c r="F343" s="1" t="s">
+      <c r="G343" s="1">
+        <v>1</v>
+      </c>
+      <c r="H343" s="1" t="s">
         <v>2909</v>
-      </c>
-      <c r="G343" s="1">
-        <v>1</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>2910</v>
       </c>
       <c r="I343" s="1">
         <v>1</v>
@@ -25278,22 +25276,22 @@
         <v>2476</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="E344" s="1" t="s">
+      <c r="F344" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="F344" s="1" t="s">
-        <v>2915</v>
-      </c>
       <c r="G344" s="1">
         <v>1</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="I344" s="1">
         <v>1</v>
@@ -25310,22 +25308,22 @@
         <v>2476</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D345" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F345" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="F345" s="1" t="s">
+      <c r="G345" s="1">
+        <v>1</v>
+      </c>
+      <c r="H345" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="G345" s="1">
-        <v>1</v>
-      </c>
-      <c r="H345" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="I345" s="1">
         <v>1</v>
@@ -25342,22 +25340,22 @@
         <v>2477</v>
       </c>
       <c r="C346" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F346" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="E346" s="1" t="s">
+      <c r="G346" s="1">
+        <v>1</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>2922</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="G346" s="1">
-        <v>1</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="I346" s="1">
         <v>1</v>
@@ -25374,22 +25372,22 @@
         <v>2478</v>
       </c>
       <c r="C347" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="F347" s="1" t="s">
         <v>2926</v>
       </c>
-      <c r="F347" s="1" t="s">
+      <c r="G347" s="1">
+        <v>1</v>
+      </c>
+      <c r="H347" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="G347" s="1">
-        <v>1</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="I347" s="1">
         <v>1</v>
@@ -25406,22 +25404,22 @@
         <v>2479</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>2929</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G348" s="1">
+        <v>1</v>
+      </c>
+      <c r="H348" s="1" t="s">
         <v>2930</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="G348" s="1">
-        <v>1</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>2931</v>
       </c>
       <c r="I348" s="1">
         <v>1</v>
@@ -25438,22 +25436,22 @@
         <v>2480</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="E349" s="1" t="s">
+      <c r="F349" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="F349" s="1" t="s">
+      <c r="G349" s="1">
+        <v>1</v>
+      </c>
+      <c r="H349" s="1" t="s">
         <v>2937</v>
-      </c>
-      <c r="G349" s="1">
-        <v>1</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>2938</v>
       </c>
       <c r="I349" s="1">
         <v>1</v>
@@ -25470,22 +25468,22 @@
         <v>2481</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D350" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>2940</v>
       </c>
-      <c r="E350" s="1" t="s">
+      <c r="F350" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G350" s="1">
+        <v>1</v>
+      </c>
+      <c r="H350" s="1" t="s">
         <v>2941</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="G350" s="1">
-        <v>1</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="I350" s="1">
         <v>1</v>
@@ -25502,22 +25500,22 @@
         <v>2482</v>
       </c>
       <c r="C351" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>2953</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="F351" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="F351" s="1" t="s">
+      <c r="G351" s="1">
+        <v>1</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>2955</v>
-      </c>
-      <c r="G351" s="1">
-        <v>1</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="I351" s="1">
         <v>1</v>
@@ -25534,22 +25532,22 @@
         <v>2483</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="E352" s="1">
         <v>1991</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="G352" s="1">
         <v>1</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="I352" s="1">
         <v>1</v>
@@ -25566,22 +25564,22 @@
         <v>2484</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="E353" s="1" t="s">
+      <c r="F353" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G353" s="1">
+        <v>1</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>2959</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="G353" s="1">
-        <v>1</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>2960</v>
       </c>
       <c r="I353" s="1">
         <v>1</v>
@@ -25598,22 +25596,22 @@
         <v>2485</v>
       </c>
       <c r="C354" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F354" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="G354" s="1">
+        <v>1</v>
+      </c>
+      <c r="H354" s="1" t="s">
         <v>2950</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="G354" s="1">
-        <v>1</v>
-      </c>
-      <c r="H354" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="I354" s="1">
         <v>1</v>
@@ -25630,22 +25628,22 @@
         <v>2486</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="E355" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F355" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="F355" s="1" t="s">
+      <c r="G355" s="1">
+        <v>1</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="G355" s="1">
-        <v>1</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2963</v>
       </c>
       <c r="I355" s="1">
         <v>1</v>
@@ -25662,22 +25660,22 @@
         <v>2487</v>
       </c>
       <c r="C356" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>2964</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F356" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="G356" s="1">
+        <v>1</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2967</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="G356" s="1">
-        <v>1</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2968</v>
       </c>
       <c r="I356" s="1">
         <v>1</v>
@@ -25694,22 +25692,22 @@
         <v>2488</v>
       </c>
       <c r="C357" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>2969</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F357" s="1" t="s">
         <v>2970</v>
       </c>
-      <c r="E357" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="F357" s="1" t="s">
+      <c r="G357" s="1">
+        <v>1</v>
+      </c>
+      <c r="H357" s="1" t="s">
         <v>2971</v>
-      </c>
-      <c r="G357" s="1">
-        <v>1</v>
-      </c>
-      <c r="H357" s="1" t="s">
-        <v>2972</v>
       </c>
       <c r="I357" s="1">
         <v>1</v>
@@ -25726,22 +25724,22 @@
         <v>2489</v>
       </c>
       <c r="C358" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>2975</v>
       </c>
-      <c r="E358" s="1" t="s">
+      <c r="F358" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="F358" s="1" t="s">
+      <c r="G358" s="1">
+        <v>1</v>
+      </c>
+      <c r="H358" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="G358" s="1">
-        <v>1</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>2978</v>
       </c>
       <c r="I358" s="1">
         <v>1</v>
@@ -25758,22 +25756,22 @@
         <v>2490</v>
       </c>
       <c r="C359" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>2979</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F359" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>2981</v>
-      </c>
       <c r="G359" s="1">
         <v>1</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="I359" s="1">
         <v>1</v>
@@ -25790,22 +25788,22 @@
         <v>2491</v>
       </c>
       <c r="C360" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F360" s="1" t="s">
         <v>2984</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="F360" s="1" t="s">
+      <c r="G360" s="1">
+        <v>1</v>
+      </c>
+      <c r="H360" s="1" t="s">
         <v>2985</v>
-      </c>
-      <c r="G360" s="1">
-        <v>1</v>
-      </c>
-      <c r="H360" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="I360" s="1">
         <v>1</v>
@@ -25822,22 +25820,22 @@
         <v>2492</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="G361" s="1">
         <v>1</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="I361" s="1">
         <v>1</v>
@@ -29924,11 +29922,6 @@
       </c>
       <c r="J601" s="1" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="602" spans="1:10">
-      <c r="A602" s="1" t="s">
-        <v>2767</v>
       </c>
     </row>
   </sheetData>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="11100" windowHeight="5805" tabRatio="627" activeTab="8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="3088">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11962,25 +11962,411 @@
   </si>
   <si>
     <t>左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳女主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国与好莱坞的桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年包青天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一美女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美声歌王</t>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单身情歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真假音转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲小旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不老传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝代双骄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛车手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兵日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还珠格格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳制作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建宁公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少还有你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美少女冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天外飞仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶作剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳男主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华语流行乐教父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方之珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国最强音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳女歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕尾蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲舞王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱转角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿美族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳男歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同桌的你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民谣</t>
+  </si>
+  <si>
+    <t>睡在我上铺的兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方麦当娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百变天后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大姐大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜剧之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多国语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家一级演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文职将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠穆朗玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不得不爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁虎漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓缩的都是精华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起手来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人40一枝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约在冬季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作歌手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12046,7 +12432,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -12059,7 +12445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12133,7 +12519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12168,7 +12553,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12344,7 +12728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12353,7 +12737,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12614,7 +12998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12972,7 +13356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13171,7 +13555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13300,7 +13684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13309,7 +13693,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13374,7 +13758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13422,19 +13806,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14119,25 +14503,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -14252,25 +14636,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="A602" sqref="A602"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -25851,8 +26235,23 @@
       <c r="B362" s="4" t="s">
         <v>2493</v>
       </c>
+      <c r="C362" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>2994</v>
+      </c>
       <c r="G362" s="1">
         <v>1</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>2995</v>
       </c>
       <c r="I362" s="1">
         <v>1</v>
@@ -25868,8 +26267,23 @@
       <c r="B363" s="4" t="s">
         <v>2494</v>
       </c>
+      <c r="C363" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>2999</v>
+      </c>
       <c r="G363" s="1">
         <v>1</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>3000</v>
       </c>
       <c r="I363" s="1">
         <v>1</v>
@@ -25885,8 +26299,23 @@
       <c r="B364" s="4" t="s">
         <v>2495</v>
       </c>
+      <c r="C364" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>3004</v>
+      </c>
       <c r="G364" s="1">
         <v>1</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>3002</v>
       </c>
       <c r="I364" s="1">
         <v>1</v>
@@ -25902,8 +26331,23 @@
       <c r="B365" s="4" t="s">
         <v>2496</v>
       </c>
+      <c r="C365" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>3009</v>
+      </c>
       <c r="G365" s="1">
         <v>1</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>3010</v>
       </c>
       <c r="I365" s="1">
         <v>1</v>
@@ -25919,8 +26363,23 @@
       <c r="B366" s="4" t="s">
         <v>2497</v>
       </c>
+      <c r="C366" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>3013</v>
+      </c>
       <c r="G366" s="1">
         <v>1</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>3014</v>
       </c>
       <c r="I366" s="1">
         <v>1</v>
@@ -25936,8 +26395,23 @@
       <c r="B367" s="4" t="s">
         <v>2498</v>
       </c>
+      <c r="C367" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>3017</v>
+      </c>
       <c r="G367" s="1">
         <v>1</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>3019</v>
       </c>
       <c r="I367" s="1">
         <v>1</v>
@@ -25953,8 +26427,23 @@
       <c r="B368" s="4" t="s">
         <v>2499</v>
       </c>
+      <c r="C368" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>3023</v>
+      </c>
       <c r="G368" s="1">
         <v>1</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>3020</v>
       </c>
       <c r="I368" s="1">
         <v>1</v>
@@ -25970,8 +26459,23 @@
       <c r="B369" s="4" t="s">
         <v>2500</v>
       </c>
+      <c r="C369" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>3028</v>
+      </c>
       <c r="G369" s="1">
         <v>1</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>3027</v>
       </c>
       <c r="I369" s="1">
         <v>1</v>
@@ -25987,8 +26491,23 @@
       <c r="B370" s="4" t="s">
         <v>2501</v>
       </c>
+      <c r="C370" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>3032</v>
+      </c>
       <c r="G370" s="1">
         <v>1</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>3033</v>
       </c>
       <c r="I370" s="1">
         <v>1</v>
@@ -26004,8 +26523,23 @@
       <c r="B371" s="4" t="s">
         <v>2502</v>
       </c>
+      <c r="C371" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>3037</v>
+      </c>
       <c r="G371" s="1">
         <v>1</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>3038</v>
       </c>
       <c r="I371" s="1">
         <v>1</v>
@@ -26021,8 +26555,23 @@
       <c r="B372" s="4" t="s">
         <v>2503</v>
       </c>
+      <c r="C372" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>3042</v>
+      </c>
       <c r="G372" s="1">
         <v>1</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>3043</v>
       </c>
       <c r="I372" s="1">
         <v>1</v>
@@ -26038,8 +26587,23 @@
       <c r="B373" s="4" t="s">
         <v>2504</v>
       </c>
+      <c r="C373" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>3046</v>
+      </c>
       <c r="G373" s="1">
         <v>1</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>3048</v>
       </c>
       <c r="I373" s="1">
         <v>1</v>
@@ -26055,8 +26619,23 @@
       <c r="B374" s="4" t="s">
         <v>2497</v>
       </c>
+      <c r="C374" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>3051</v>
+      </c>
       <c r="G374" s="1">
         <v>1</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>3050</v>
       </c>
       <c r="I374" s="1">
         <v>1</v>
@@ -26072,8 +26651,23 @@
       <c r="B375" s="4" t="s">
         <v>2505</v>
       </c>
+      <c r="C375" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>3057</v>
+      </c>
       <c r="G375" s="1">
         <v>1</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>3055</v>
       </c>
       <c r="I375" s="1">
         <v>1</v>
@@ -26089,8 +26683,23 @@
       <c r="B376" s="4" t="s">
         <v>2506</v>
       </c>
+      <c r="C376" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>3063</v>
+      </c>
       <c r="G376" s="1">
         <v>1</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>3061</v>
       </c>
       <c r="I376" s="1">
         <v>1</v>
@@ -26106,8 +26715,23 @@
       <c r="B377" s="4" t="s">
         <v>2507</v>
       </c>
+      <c r="C377" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>3068</v>
+      </c>
       <c r="G377" s="1">
         <v>1</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>3066</v>
       </c>
       <c r="I377" s="1">
         <v>1</v>
@@ -26123,8 +26747,23 @@
       <c r="B378" s="4" t="s">
         <v>2508</v>
       </c>
+      <c r="C378" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="G378" s="1">
         <v>1</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="I378" s="1">
         <v>1</v>
@@ -26140,8 +26779,23 @@
       <c r="B379" s="4" t="s">
         <v>2509</v>
       </c>
+      <c r="C379" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>3077</v>
+      </c>
       <c r="G379" s="1">
         <v>1</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>3076</v>
       </c>
       <c r="I379" s="1">
         <v>1</v>
@@ -26157,8 +26811,23 @@
       <c r="B380" s="4" t="s">
         <v>2510</v>
       </c>
+      <c r="C380" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>3081</v>
+      </c>
       <c r="G380" s="1">
         <v>1</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>3082</v>
       </c>
       <c r="I380" s="1">
         <v>1</v>
@@ -26174,8 +26843,23 @@
       <c r="B381" s="4" t="s">
         <v>2511</v>
       </c>
+      <c r="C381" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>3087</v>
+      </c>
       <c r="G381" s="1">
         <v>1</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>3086</v>
       </c>
       <c r="I381" s="1">
         <v>1</v>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="3088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="3103">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12348,6 +12348,66 @@
   </si>
   <si>
     <t>创作歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心太软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑傲江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝世好男人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对面的女孩看过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你快回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缘分天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖项之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天黑黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14639,8 +14699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26875,8 +26935,23 @@
       <c r="B382" s="4" t="s">
         <v>2512</v>
       </c>
+      <c r="C382" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>3091</v>
+      </c>
       <c r="G382" s="1">
         <v>1</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>3092</v>
       </c>
       <c r="I382" s="1">
         <v>1</v>
@@ -26892,8 +26967,23 @@
       <c r="B383" s="4" t="s">
         <v>2513</v>
       </c>
+      <c r="C383" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>3096</v>
+      </c>
       <c r="G383" s="1">
         <v>1</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>3097</v>
       </c>
       <c r="I383" s="1">
         <v>1</v>
@@ -26909,8 +26999,23 @@
       <c r="B384" s="4" t="s">
         <v>2514</v>
       </c>
+      <c r="C384" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>3098</v>
+      </c>
       <c r="G384" s="1">
         <v>1</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>3102</v>
       </c>
       <c r="I384" s="1">
         <v>1</v>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="3103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="3167">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12408,6 +12408,262 @@
   </si>
   <si>
     <t>天黑黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐隆政变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿瞒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹡鸰颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最年长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云相救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字升之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉初三杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮阴侯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国士无双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵败彭城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易水歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图穷匕见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战国末期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女高音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家一级演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈欺猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性感丰唇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代周刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪兴十三妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金马奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小虎队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖乖虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五阿哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有双月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实力唱将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤花脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘎达梅林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故乡的风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釜山主持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路去纽约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太委屈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倔强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志明与春娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我猜我猜我猜猜猜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBDW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14699,8 +14955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="D508" sqref="D508"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -27031,8 +27287,23 @@
       <c r="B385" s="4" t="s">
         <v>2515</v>
       </c>
+      <c r="C385" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>3125</v>
+      </c>
       <c r="G385" s="1">
         <v>1</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>3127</v>
       </c>
       <c r="I385" s="1">
         <v>1</v>
@@ -27048,8 +27319,23 @@
       <c r="B386" s="4" t="s">
         <v>2516</v>
       </c>
+      <c r="C386" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>3131</v>
+      </c>
       <c r="G386" s="1">
         <v>1</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>3132</v>
       </c>
       <c r="I386" s="1">
         <v>1</v>
@@ -27065,8 +27351,23 @@
       <c r="B387" s="4" t="s">
         <v>2517</v>
       </c>
+      <c r="C387" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>3136</v>
+      </c>
       <c r="G387" s="1">
         <v>1</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>3137</v>
       </c>
       <c r="I387" s="1">
         <v>1</v>
@@ -27082,8 +27383,23 @@
       <c r="B388" s="4" t="s">
         <v>2518</v>
       </c>
+      <c r="C388" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>3139</v>
+      </c>
       <c r="G388" s="1">
         <v>1</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>3138</v>
       </c>
       <c r="I388" s="1">
         <v>1</v>
@@ -27099,8 +27415,23 @@
       <c r="B389" s="4" t="s">
         <v>2519</v>
       </c>
+      <c r="C389" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>3145</v>
+      </c>
       <c r="G389" s="1">
         <v>1</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>3147</v>
       </c>
       <c r="I389" s="1">
         <v>1</v>
@@ -27116,8 +27447,23 @@
       <c r="B390" s="4" t="s">
         <v>2520</v>
       </c>
+      <c r="C390" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>3150</v>
+      </c>
       <c r="G390" s="1">
         <v>1</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>3151</v>
       </c>
       <c r="I390" s="1">
         <v>1</v>
@@ -27133,8 +27479,23 @@
       <c r="B391" s="4" t="s">
         <v>2521</v>
       </c>
+      <c r="C391" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>3152</v>
+      </c>
       <c r="G391" s="1">
         <v>1</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>3153</v>
       </c>
       <c r="I391" s="1">
         <v>1</v>
@@ -27150,8 +27511,23 @@
       <c r="B392" s="4" t="s">
         <v>2522</v>
       </c>
+      <c r="C392" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>3158</v>
+      </c>
       <c r="G392" s="1">
         <v>1</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>3159</v>
       </c>
       <c r="I392" s="1">
         <v>1</v>
@@ -27167,8 +27543,23 @@
       <c r="B393" s="4" t="s">
         <v>2523</v>
       </c>
+      <c r="C393" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>3141</v>
+      </c>
       <c r="G393" s="1">
         <v>1</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>3163</v>
       </c>
       <c r="I393" s="1">
         <v>1</v>
@@ -27184,8 +27575,23 @@
       <c r="B394" s="4" t="s">
         <v>2524</v>
       </c>
+      <c r="C394" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>3141</v>
+      </c>
       <c r="G394" s="1">
         <v>1</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>3164</v>
       </c>
       <c r="I394" s="1">
         <v>1</v>
@@ -30652,8 +31058,23 @@
       <c r="B598" s="4" t="s">
         <v>2630</v>
       </c>
+      <c r="C598" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>3122</v>
+      </c>
       <c r="G598" s="1">
         <v>1</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>3120</v>
       </c>
       <c r="I598" s="1">
         <v>1</v>
@@ -30669,8 +31090,23 @@
       <c r="B599" s="4" t="s">
         <v>2629</v>
       </c>
+      <c r="C599" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>3116</v>
+      </c>
       <c r="G599" s="1">
         <v>1</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>3117</v>
       </c>
       <c r="I599" s="1">
         <v>1</v>
@@ -30686,8 +31122,23 @@
       <c r="B600" s="4" t="s">
         <v>2628</v>
       </c>
+      <c r="C600" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>3110</v>
+      </c>
       <c r="G600" s="1">
         <v>1</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>3112</v>
       </c>
       <c r="I600" s="1">
         <v>1</v>
@@ -30703,8 +31154,23 @@
       <c r="B601" s="4" t="s">
         <v>2627</v>
       </c>
+      <c r="C601" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>3106</v>
+      </c>
       <c r="G601" s="1">
         <v>1</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>3107</v>
       </c>
       <c r="I601" s="1">
         <v>1</v>

--- a/Q/Q.xlsx
+++ b/Q/Q.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="3168">
   <si>
     <t>人物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12664,6 +12664,10 @@
   </si>
   <si>
     <t>谐星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧薪尝胆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14955,8 +14959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="F394" sqref="F394"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -31041,6 +31045,9 @@
       <c r="B597" s="4" t="s">
         <v>2631</v>
       </c>
+      <c r="F597" s="1" t="s">
+        <v>3167</v>
+      </c>
       <c r="G597" s="1">
         <v>1</v>
       </c>
